--- a/biology/Zoologie/Faunis/Faunis.xlsx
+++ b/biology/Zoologie/Faunis/Faunis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faunis est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Morphinae.
 </t>
@@ -511,13 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Faunis a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
-Synonyme
-Clerome Westwood, 1850[1].
-Nom vernaculaire
-En anglais ils se nomment Fauns.
 </t>
         </is>
       </c>
@@ -543,10 +553,85 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Clerome Westwood, 1850.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faunis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faunis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anglais ils se nomment Fauns.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faunis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faunis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur Musa, Smilax et Pandanus.
 Ils résident en Australasie.
@@ -555,31 +640,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Faunis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Faunis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Faunis aerope (Leech, 1890)
 Faunis aerope aerope (Leech, 1890)
@@ -588,7 +675,7 @@
 Faunis aerope longpoensis Huang, 2001
 Faunis arcesilaus (Fabricius, 1787) au départ Papilio arcesilaus Fabricius, 1787
 Faunis assama (Westwood, 1858)
-Faunis canens Hübner, 1826 , Faune des bananiers, Inde et Asie du Sud-Est[2]
+Faunis canens Hübner, 1826 , Faune des bananiers, Inde et Asie du Sud-Est
 Faunis canens canens Hübner, 1826
 Faunis canens arcesilas Stichel, 1933
 Faunis canens borneensis Fruhstorfer
@@ -608,7 +695,7 @@
 Faunis menado syllus Fruhstorfer
 Faunis menado suluana Fruhstorfer
 Faunis phaon Erichson, 1834
-Faunis phaon leucis (Felder &amp; Felder, 1861) [3]
+Faunis phaon leucis (Felder &amp; Felder, 1861) 
 Faunis phaon phaon Erichson, 1834
 Faunis phaon lurida Felder
 Faunis phaon ikonion Fruhstorfer
